--- a/code_generate_figures/data/ranks_all_FragPipe_TMT_ensemble_mv.xlsx
+++ b/code_generate_figures/data/ranks_all_FragPipe_TMT_ensemble_mv.xlsx
@@ -668,31 +668,31 @@
         <v>0.8096417</v>
       </c>
       <c r="I2" t="n">
-        <v>0.79441905</v>
+        <v>0.7888409</v>
       </c>
       <c r="J2" t="n">
         <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
         <v>0.909427526666667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.91704015</v>
+        <v>0.9178586</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
         <v>0.931565153333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.94214915</v>
+        <v>0.9430005</v>
       </c>
       <c r="R2" t="n">
         <v>9</v>
@@ -704,7 +704,7 @@
         <v>0.89258882</v>
       </c>
       <c r="U2" t="n">
-        <v>0.93613695</v>
+        <v>0.9374105</v>
       </c>
       <c r="V2" t="n">
         <v>6</v>
@@ -716,7 +716,7 @@
         <v>0.847183286666667</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9280186</v>
+        <v>0.9341104</v>
       </c>
       <c r="Z2" t="n">
         <v>8</v>
@@ -728,7 +728,7 @@
         <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.4</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="3">
@@ -757,7 +757,7 @@
         <v>0.80244478</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7953596</v>
+        <v>0.7936414</v>
       </c>
       <c r="J3" t="n">
         <v>18</v>
@@ -769,7 +769,7 @@
         <v>0.903682886666667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.92075195</v>
+        <v>0.9209819</v>
       </c>
       <c r="N3" t="n">
         <v>18</v>
@@ -781,7 +781,7 @@
         <v>0.927350286666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.93985615</v>
+        <v>0.9427314</v>
       </c>
       <c r="R3" t="n">
         <v>18</v>
@@ -793,31 +793,31 @@
         <v>0.884352813333333</v>
       </c>
       <c r="U3" t="n">
-        <v>0.93963285</v>
+        <v>0.939803</v>
       </c>
       <c r="V3" t="n">
         <v>13</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>0.82081226</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.91829245</v>
+        <v>0.9194454</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
         <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +846,7 @@
         <v>0.808257533333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.79691425</v>
+        <v>0.7961511</v>
       </c>
       <c r="J4" t="n">
         <v>16</v>
@@ -858,19 +858,19 @@
         <v>0.907436913333333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.92190315</v>
+        <v>0.9225368</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P4" t="n">
         <v>0.9305309</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9422897</v>
+        <v>0.9444176</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -882,31 +882,31 @@
         <v>0.885323453333333</v>
       </c>
       <c r="U4" t="n">
-        <v>0.93864615</v>
+        <v>0.9401447</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>0.823794246666667</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.91822495</v>
+        <v>0.9203255</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
         <v>12.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5">
@@ -935,43 +935,43 @@
         <v>0.8090653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.79428695</v>
+        <v>0.7885364</v>
       </c>
       <c r="J5" t="n">
         <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
         <v>0.907338753333333</v>
       </c>
       <c r="M5" t="n">
-        <v>0.91488075</v>
+        <v>0.9159912</v>
       </c>
       <c r="N5" t="n">
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P5" t="n">
         <v>0.92906686</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9412983</v>
+        <v>0.9428095</v>
       </c>
       <c r="R5" t="n">
         <v>15</v>
       </c>
       <c r="S5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T5" t="n">
         <v>0.87526566</v>
       </c>
       <c r="U5" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V5" t="n">
         <v>20</v>
@@ -983,19 +983,19 @@
         <v>0.78974572</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z5" t="n">
         <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
         <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="6">
@@ -1024,31 +1024,31 @@
         <v>0.80883304</v>
       </c>
       <c r="I6" t="n">
-        <v>0.79400635</v>
+        <v>0.7885344</v>
       </c>
       <c r="J6" t="n">
         <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
         <v>0.907288666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.91481085</v>
+        <v>0.915987</v>
       </c>
       <c r="N6" t="n">
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P6" t="n">
         <v>0.928965333333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9412973</v>
+        <v>0.9428095</v>
       </c>
       <c r="R6" t="n">
         <v>17</v>
@@ -1060,7 +1060,7 @@
         <v>0.875267026666667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V6" t="n">
         <v>19</v>
@@ -1072,19 +1072,19 @@
         <v>0.789701633333333</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z6" t="n">
         <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>17.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="7">
@@ -1113,31 +1113,31 @@
         <v>0.808886206666667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7940528</v>
+        <v>0.7885344</v>
       </c>
       <c r="J7" t="n">
         <v>14</v>
       </c>
       <c r="K7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
         <v>0.90731232</v>
       </c>
       <c r="M7" t="n">
-        <v>0.91484495</v>
+        <v>0.915987</v>
       </c>
       <c r="N7" t="n">
         <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
         <v>0.928991786666667</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="R7" t="n">
         <v>16</v>
@@ -1149,7 +1149,7 @@
         <v>0.87528302</v>
       </c>
       <c r="U7" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V7" t="n">
         <v>17</v>
@@ -1161,19 +1161,19 @@
         <v>0.789723493333333</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z7" t="n">
         <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>16.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="8">
@@ -1202,43 +1202,43 @@
         <v>0.809472093333333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7941767</v>
+        <v>0.7888388</v>
       </c>
       <c r="J8" t="n">
         <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
         <v>0.909446706666667</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9170626</v>
+        <v>0.9178557</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P8" t="n">
         <v>0.931565426666667</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9421483</v>
+        <v>0.9430005</v>
       </c>
       <c r="R8" t="n">
         <v>8</v>
       </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T8" t="n">
         <v>0.89258882</v>
       </c>
       <c r="U8" t="n">
-        <v>0.93613695</v>
+        <v>0.9374105</v>
       </c>
       <c r="V8" t="n">
         <v>7</v>
@@ -1250,7 +1250,7 @@
         <v>0.847183286666667</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9280186</v>
+        <v>0.9341104</v>
       </c>
       <c r="Z8" t="n">
         <v>9</v>
@@ -1262,7 +1262,7 @@
         <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0.802411993333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7953475</v>
+        <v>0.7936414</v>
       </c>
       <c r="J9" t="n">
         <v>20</v>
@@ -1303,7 +1303,7 @@
         <v>0.903669606666667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9207336</v>
+        <v>0.9209819</v>
       </c>
       <c r="N9" t="n">
         <v>19</v>
@@ -1315,43 +1315,43 @@
         <v>0.92731006</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9399158</v>
+        <v>0.9427301</v>
       </c>
       <c r="R9" t="n">
         <v>19</v>
       </c>
       <c r="S9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T9" t="n">
         <v>0.884334</v>
       </c>
       <c r="U9" t="n">
-        <v>0.93958475</v>
+        <v>0.9396098</v>
       </c>
       <c r="V9" t="n">
         <v>14</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
         <v>0.8207482</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.91829245</v>
+        <v>0.9194454</v>
       </c>
       <c r="Z9" t="n">
         <v>14</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>17.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="10">
@@ -1380,7 +1380,7 @@
         <v>0.808217526666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7967578</v>
+        <v>0.7959714</v>
       </c>
       <c r="J10" t="n">
         <v>17</v>
@@ -1392,7 +1392,7 @@
         <v>0.907433593333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.92191035</v>
+        <v>0.9225368</v>
       </c>
       <c r="N10" t="n">
         <v>14</v>
@@ -1404,7 +1404,7 @@
         <v>0.930503346666667</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.94236565</v>
+        <v>0.9444582</v>
       </c>
       <c r="R10" t="n">
         <v>11</v>
@@ -1416,31 +1416,31 @@
         <v>0.885293673333333</v>
       </c>
       <c r="U10" t="n">
-        <v>0.938594</v>
+        <v>0.9397074</v>
       </c>
       <c r="V10" t="n">
         <v>12</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
         <v>0.8237107</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.91822495</v>
+        <v>0.9203255</v>
       </c>
       <c r="Z10" t="n">
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>13.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11">
@@ -1469,43 +1469,43 @@
         <v>0.8096693</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7944392</v>
+        <v>0.7888409</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
         <v>0.909439033333333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.91711615</v>
+        <v>0.9178574</v>
       </c>
       <c r="N11" t="n">
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P11" t="n">
         <v>0.931570833333333</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9421487</v>
+        <v>0.9430005</v>
       </c>
       <c r="R11" t="n">
         <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T11" t="n">
         <v>0.89258882</v>
       </c>
       <c r="U11" t="n">
-        <v>0.93613695</v>
+        <v>0.9374105</v>
       </c>
       <c r="V11" t="n">
         <v>8</v>
@@ -1517,7 +1517,7 @@
         <v>0.847183286666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9280186</v>
+        <v>0.9341104</v>
       </c>
       <c r="Z11" t="n">
         <v>10</v>
@@ -1529,7 +1529,7 @@
         <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12">
@@ -1558,7 +1558,7 @@
         <v>0.802414973333333</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7953475</v>
+        <v>0.7936414</v>
       </c>
       <c r="J12" t="n">
         <v>19</v>
@@ -1570,7 +1570,7 @@
         <v>0.903658266666667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9207336</v>
+        <v>0.9209819</v>
       </c>
       <c r="N12" t="n">
         <v>20</v>
@@ -1582,43 +1582,43 @@
         <v>0.9272993</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9398235</v>
+        <v>0.9427623</v>
       </c>
       <c r="R12" t="n">
         <v>20</v>
       </c>
       <c r="S12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T12" t="n">
         <v>0.884334</v>
       </c>
       <c r="U12" t="n">
-        <v>0.93958475</v>
+        <v>0.9396098</v>
       </c>
       <c r="V12" t="n">
         <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>0.8207482</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.91829245</v>
+        <v>0.9194454</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
         <v>17.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1647,43 +1647,43 @@
         <v>0.808942486666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.79400635</v>
+        <v>0.7885344</v>
       </c>
       <c r="J13" t="n">
         <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L13" t="n">
         <v>0.90750886</v>
       </c>
       <c r="M13" t="n">
-        <v>0.91526995</v>
+        <v>0.9159293</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P13" t="n">
         <v>0.929332033333333</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9412543</v>
+        <v>0.942742</v>
       </c>
       <c r="R13" t="n">
         <v>12</v>
       </c>
       <c r="S13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T13" t="n">
         <v>0.896366746666667</v>
       </c>
       <c r="U13" t="n">
-        <v>0.94069075</v>
+        <v>0.9414732</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>0.848088613333333</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9263877</v>
+        <v>0.931004</v>
       </c>
       <c r="Z13" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="14">
@@ -1736,7 +1736,7 @@
         <v>0.820712733333333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.80511515</v>
+        <v>0.8015114</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1748,19 +1748,19 @@
         <v>0.916823973333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9246317</v>
+        <v>0.9246578</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>0.938327093333333</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.94646955</v>
+        <v>0.9470992</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>0.892636026666667</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9363377</v>
+        <v>0.937812</v>
       </c>
       <c r="V14" t="n">
         <v>4</v>
@@ -1784,7 +1784,7 @@
         <v>0.84759658</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9280186</v>
+        <v>0.9341104</v>
       </c>
       <c r="Z14" t="n">
         <v>4</v>
@@ -1796,7 +1796,7 @@
         <v>2.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="15">
@@ -1825,43 +1825,43 @@
         <v>0.80939674</v>
       </c>
       <c r="I15" t="n">
-        <v>0.79417805</v>
+        <v>0.7884538</v>
       </c>
       <c r="J15" t="n">
         <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>0.907439473333333</v>
       </c>
       <c r="M15" t="n">
-        <v>0.91485475</v>
+        <v>0.9159723</v>
       </c>
       <c r="N15" t="n">
         <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
         <v>0.929085733333333</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9412982</v>
+        <v>0.9428186</v>
       </c>
       <c r="R15" t="n">
         <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T15" t="n">
         <v>0.87527432</v>
       </c>
       <c r="U15" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V15" t="n">
         <v>18</v>
@@ -1873,19 +1873,19 @@
         <v>0.791082693333333</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9244114</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z15" t="n">
         <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB15" t="n">
         <v>14.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1914,7 +1914,7 @@
         <v>0.820587686666667</v>
       </c>
       <c r="I16" t="n">
-        <v>0.80443175</v>
+        <v>0.8005746</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -1926,7 +1926,7 @@
         <v>0.91682126</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9246463</v>
+        <v>0.9246582</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
@@ -1938,7 +1938,7 @@
         <v>0.93831254</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.94650545</v>
+        <v>0.9471593</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
@@ -1950,7 +1950,7 @@
         <v>0.892627066666667</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9363377</v>
+        <v>0.937812</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
@@ -1962,7 +1962,7 @@
         <v>0.84758284</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9280186</v>
+        <v>0.9341104</v>
       </c>
       <c r="Z16" t="n">
         <v>5</v>
@@ -2003,7 +2003,7 @@
         <v>0.813047833333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.80110285</v>
+        <v>0.7964122</v>
       </c>
       <c r="J17" t="n">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>0.914007273333333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9229781</v>
+        <v>0.923434</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
@@ -2027,7 +2027,7 @@
         <v>0.93590476</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9454436</v>
+        <v>0.9465523</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
@@ -2039,7 +2039,7 @@
         <v>0.8925635</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9365667</v>
+        <v>0.9380812</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
@@ -2051,7 +2051,7 @@
         <v>0.847823566666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.92813275</v>
+        <v>0.9343387</v>
       </c>
       <c r="Z17" t="n">
         <v>2</v>
@@ -2092,7 +2092,7 @@
         <v>0.82073002</v>
       </c>
       <c r="I18" t="n">
-        <v>0.80512925</v>
+        <v>0.8016446</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         <v>0.9168181</v>
       </c>
       <c r="M18" t="n">
-        <v>0.92462335</v>
+        <v>0.9246262</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -2116,7 +2116,7 @@
         <v>0.938219746666667</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9462816</v>
+        <v>0.9468049</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>0.892657093333333</v>
       </c>
       <c r="U18" t="n">
-        <v>0.93627035</v>
+        <v>0.9376773</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -2140,7 +2140,7 @@
         <v>0.8475148</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9280186</v>
+        <v>0.9341104</v>
       </c>
       <c r="Z18" t="n">
         <v>6</v>
@@ -2181,31 +2181,31 @@
         <v>0.809399373333333</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7941791</v>
+        <v>0.7884559</v>
       </c>
       <c r="J19" t="n">
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
         <v>0.90744096</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9148555</v>
+        <v>0.9159727</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P19" t="n">
         <v>0.92908642</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.94130695</v>
+        <v>0.9428359</v>
       </c>
       <c r="R19" t="n">
         <v>13</v>
@@ -2217,7 +2217,7 @@
         <v>0.87537476</v>
       </c>
       <c r="U19" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V19" t="n">
         <v>16</v>
@@ -2229,19 +2229,19 @@
         <v>0.79106726</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9244114</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z19" t="n">
         <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>13.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.2</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="20">
@@ -2270,7 +2270,7 @@
         <v>0.820601613333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.80444185</v>
+        <v>0.800724</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -2282,19 +2282,19 @@
         <v>0.916813173333333</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9246371</v>
+        <v>0.9246567</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>0.938205893333333</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.94630455</v>
+        <v>0.9468523</v>
       </c>
       <c r="R20" t="n">
         <v>4</v>
@@ -2306,7 +2306,7 @@
         <v>0.892648146666667</v>
       </c>
       <c r="U20" t="n">
-        <v>0.93627035</v>
+        <v>0.9376773</v>
       </c>
       <c r="V20" t="n">
         <v>3</v>
@@ -2318,7 +2318,7 @@
         <v>0.847501053333333</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.9280186</v>
+        <v>0.9341104</v>
       </c>
       <c r="Z20" t="n">
         <v>7</v>
@@ -2330,7 +2330,7 @@
         <v>4.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2359,7 +2359,7 @@
         <v>0.809407486666667</v>
       </c>
       <c r="I21" t="n">
-        <v>0.80111445</v>
+        <v>0.7964637</v>
       </c>
       <c r="J21" t="n">
         <v>9</v>
@@ -2371,19 +2371,19 @@
         <v>0.912969446666667</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9221578</v>
+        <v>0.922374</v>
       </c>
       <c r="N21" t="n">
         <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P21" t="n">
         <v>0.935214846666667</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9449506</v>
+        <v>0.945688</v>
       </c>
       <c r="R21" t="n">
         <v>6</v>
@@ -2395,7 +2395,7 @@
         <v>0.89254254</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9364994</v>
+        <v>0.9379466</v>
       </c>
       <c r="V21" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         <v>0.84768658</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.92819105</v>
+        <v>0.9344553</v>
       </c>
       <c r="Z21" t="n">
         <v>3</v>
@@ -2419,7 +2419,7 @@
         <v>6.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
